--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmatosato/Documents/UNI/Erasmus/Data Mining and Machine Learning/Spectral-AnalysisProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA0139C-3357-9C42-9176-E27C97126C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A6BAB1-4953-964D-B2FC-C4165679A7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C987B64F-3ACC-9A46-8420-C4872D4D3A48}"/>
   </bookViews>
@@ -3435,22 +3435,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3465,29 +3482,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3804,8 +3798,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O709"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B584" sqref="B584"/>
+    <sheetView tabSelected="1" topLeftCell="A574" zoomScale="180" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5719,11 +5713,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -5884,11 +5878,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -6214,11 +6208,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -6709,11 +6703,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="5" t="s">
         <v>163</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -12964,11 +12958,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" s="2" t="s">
         <v>400</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -14264,11 +14258,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" s="2" t="s">
         <v>447</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -14594,11 +14588,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B334" s="2" t="s">
         <v>459</v>
       </c>
       <c r="C334" s="1" t="s">
@@ -14759,11 +14753,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" s="2" t="s">
         <v>465</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -22459,11 +22453,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B581" s="2" t="s">
+      <c r="B581" s="5" t="s">
         <v>848</v>
       </c>
       <c r="C581" s="1" t="s">
@@ -22552,11 +22546,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B584" s="5" t="s">
         <v>854</v>
       </c>
       <c r="C584" s="1" t="s">
@@ -26257,11 +26251,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B701" s="2" t="s">
+      <c r="B701" s="5" t="s">
         <v>1091</v>
       </c>
       <c r="C701" s="1" t="s">
@@ -26288,11 +26282,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B702" s="5" t="s">
         <v>1093</v>
       </c>
       <c r="C702" s="1" t="s">
@@ -26319,11 +26313,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B703" s="5" t="s">
         <v>1095</v>
       </c>
       <c r="C703" s="1" t="s">
@@ -26350,11 +26344,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B704" s="2" t="s">
+      <c r="B704" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="C704" s="1" t="s">
@@ -26381,11 +26375,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B705" s="2" t="s">
+      <c r="B705" s="5" t="s">
         <v>1099</v>
       </c>
       <c r="C705" s="1" t="s">
@@ -26412,11 +26406,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B706" s="2" t="s">
+      <c r="B706" s="5" t="s">
         <v>1101</v>
       </c>
       <c r="C706" s="1" t="s">
@@ -26551,11 +26545,11 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"SpecObj"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"PhotoObj"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"SpecObj"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
